--- a/tools/sama/sama-csf-1.0.xlsx
+++ b/tools/sama/sama-csf-1.0.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/sama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB36548C-6C24-D642-BEE8-13C42622B3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A3DCD9-9286-8C48-909C-767D16BCB339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="-25020" windowWidth="34560" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29460" yWindow="-28300" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
-    <sheet name="req" sheetId="4" r:id="rId2"/>
+    <sheet name="req" sheetId="5" r:id="rId2"/>
     <sheet name="scores" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="582">
   <si>
     <t>assessable</t>
   </si>
@@ -1744,6 +1744,231 @@
   </si>
   <si>
     <t>• Cyber security controls are subject to a continuous improvement plan.</t>
+  </si>
+  <si>
+    <t>3.1.1-1</t>
+  </si>
+  <si>
+    <t>A Cyber Security committee should be established and be mandated by the board.</t>
+  </si>
+  <si>
+    <t>3.1.2-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security strategy should be defined, approved, maintained and executed.</t>
+  </si>
+  <si>
+    <t>3.1.3-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security policy should be defined, approved and communicated.</t>
+  </si>
+  <si>
+    <t>3.1.4-1</t>
+  </si>
+  <si>
+    <t>The Board of Directors has the ultimate responsibility for Cyber Security, including: a. ensuring that sufficient budget for Cyber Security is allocated. approving the Cyber Security committee charter's. endorsing (after being approved by the Cyber Security committee):
+1. the Cyber Security governance;
+2. the Cyber Security strategy;
+3. the Cyber Security policy.</t>
+  </si>
+  <si>
+    <t>3.1.5-1</t>
+  </si>
+  <si>
+    <t>Cyber Security should be integrated into the Member Organization's project management methodology to ensure that Cyber Security risks are identified and addressed as part of a project.</t>
+  </si>
+  <si>
+    <t>3.1.6-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security awareness programs should be defined, approved and conducted to promote Cyber Security awareness and to create a positive Cyber Security culture.</t>
+  </si>
+  <si>
+    <t>3.1.7.1</t>
+  </si>
+  <si>
+    <t>Specialist or security-related skills training should be provided to staff in the Member Organization’s relevant functional area categories in line with their job descriptions, including: a. key roles within organization. staff of the Cyber Security function. staff involved in developing and (technically) maintaining information assets. staff involved in risk assessments.</t>
+  </si>
+  <si>
+    <t>3.2.1-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security risk management process should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.2.1.1-1</t>
+  </si>
+  <si>
+    <t>Cyber Security risk identification should be performed.</t>
+  </si>
+  <si>
+    <t>3.2.1.2-1</t>
+  </si>
+  <si>
+    <t>A Cyber Security risk analysis should be performed.</t>
+  </si>
+  <si>
+    <t>3.2.1.3-1</t>
+  </si>
+  <si>
+    <t>The relevant determined Cyber Security risks should be treated according to the Member Organization’s risk appetite and Cyber Security requirements.</t>
+  </si>
+  <si>
+    <t>3.2.1.4-1.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cyber Security treatment should be monitored, including:
+a. tracking progress in accordance to treatment plan.
+</t>
+  </si>
+  <si>
+    <t>3.2.2-1</t>
+  </si>
+  <si>
+    <t>A process should be established for ensuring compliance with relevant regulatory requirements affecting Cyber Security across the Member Organization. The process of ensuring compliance should:
+a. be performed periodically or when new regulatory requirements become effective;
+b. involve representatives from key areas of the Member Organization;
+c. result in the update of Cyber Security policy, standards and procedures to accommodate any necessary changes (if applicable).</t>
+  </si>
+  <si>
+    <t>3.2.3-1.a</t>
+  </si>
+  <si>
+    <t>The Member Organization should comply with:
+a. Payment Card Industry Data Security Standard (PCI-DSS);</t>
+  </si>
+  <si>
+    <t>3.2.4-1</t>
+  </si>
+  <si>
+    <t>Cyber Security reviews should be periodically performed for critical information assets.</t>
+  </si>
+  <si>
+    <t>3.2.5-1</t>
+  </si>
+  <si>
+    <t>Cyber Security audits should be performed independently and according to generally accepted auditing standards and SAMA Cyber Security framework.</t>
+  </si>
+  <si>
+    <t>3.3.1-1</t>
+  </si>
+  <si>
+    <t>The human resources process should define, approve and implement Cyber Security requirements.</t>
+  </si>
+  <si>
+    <t>3.3.2-1</t>
+  </si>
+  <si>
+    <t>The physical security process should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.3-1</t>
+  </si>
+  <si>
+    <t>The asset management process should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.4-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security architecture should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.5-1</t>
+  </si>
+  <si>
+    <t>The identity and access management policy, including the responsibilities and accountabilities, should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.6-1</t>
+  </si>
+  <si>
+    <t>The application Cyber Security standards should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.7-1</t>
+  </si>
+  <si>
+    <t>The change management process should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The infrastructure security standards should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.9-1</t>
+  </si>
+  <si>
+    <t>A cryptographic security standard should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.10-1</t>
+  </si>
+  <si>
+    <t>The BYOD Cyber Security standard should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.11-1</t>
+  </si>
+  <si>
+    <t>The secure disposal standard and procedure should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.12-1</t>
+  </si>
+  <si>
+    <t>For Saudi Arabian Riyal Interbank Express (SARIE) information, please refer to the SARIE Information Security Policy, Version Issue 1.0 - June 2016.</t>
+  </si>
+  <si>
+    <t>3.3.13-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security standards for electronic banking services should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.14-1</t>
+  </si>
+  <si>
+    <t>The security event management process should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.15-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security incident management process should be defined, approved, implemented and aligned with the enterprise incident management process.</t>
+  </si>
+  <si>
+    <t>3.3.16-1</t>
+  </si>
+  <si>
+    <t>The threat intelligence management process should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.3.17-1</t>
+  </si>
+  <si>
+    <t>The vulnerability management process should be defined, approved and implemented.</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>The Cyber Security requirements should be defined, approved, implemented and communicated within the contract and vendor management processes.</t>
+  </si>
+  <si>
+    <t>3.4.2-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security requirements within the outsourcing policy and process should be defined, approved, implemented and communicated within Member Organization.</t>
+  </si>
+  <si>
+    <t>3.4.3-1</t>
+  </si>
+  <si>
+    <t>The Cyber Security controls within the cloud computing policy for hybrid and public cloud services should be defined, approved and implemented, and communicated within Member Organization.</t>
   </si>
 </sst>
 </file>
@@ -2322,11 +2547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C264A94-14F4-E74D-B8EF-29AC5766B0C0}">
-  <dimension ref="A1:E251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E6FBC4-F2B5-6349-95DF-5014ECFBF984}">
+  <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="239" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2364,10 +2589,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2378,10 +2603,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2392,10 +2617,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2406,10 +2631,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2420,10 +2645,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2434,10 +2659,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2448,10 +2673,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2462,10 +2687,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2476,32 +2701,32 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2512,10 +2737,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2526,18 +2751,24 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2548,24 +2779,18 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2576,10 +2801,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>514</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2590,18 +2815,24 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2612,10 +2843,10 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2626,24 +2857,18 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
       <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2654,10 +2879,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>516</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2668,10 +2893,10 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2682,10 +2907,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2696,10 +2921,10 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2710,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2724,10 +2949,10 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2738,10 +2963,10 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2752,10 +2977,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2766,10 +2991,10 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,10 +3005,10 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2794,10 +3019,10 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2808,10 +3033,10 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2822,10 +3047,10 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2836,18 +3061,24 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2858,18 +3089,24 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2880,24 +3117,18 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
       <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2908,10 +3139,10 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>518</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2922,24 +3153,18 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
       <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,18 +3175,24 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>520</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,18 +3203,24 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2994,10 +3231,10 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3008,10 +3245,10 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3022,24 +3259,18 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
       <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" t="s">
-        <v>103</v>
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3050,10 +3281,10 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>522</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3064,24 +3295,18 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
       <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3092,10 +3317,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3106,10 +3331,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3120,10 +3345,10 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3134,10 +3359,10 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3162,10 +3387,10 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3176,10 +3401,10 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3190,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3204,18 +3429,24 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>128</v>
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3226,10 +3457,10 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3240,18 +3471,24 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
       <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3262,18 +3499,24 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
       <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3284,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3298,24 +3541,18 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
       <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3326,10 +3563,10 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>526</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,10 +3577,10 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E77" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3354,32 +3591,32 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
       <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E79" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
       <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>528</v>
+      </c>
+      <c r="E80" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3390,40 +3627,46 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
       <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>530</v>
+      </c>
+      <c r="E83" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
       <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3434,10 +3677,10 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3448,18 +3691,24 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
       <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>162</v>
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>143</v>
+      </c>
+      <c r="E87" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3470,10 +3719,10 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3484,10 +3733,10 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3498,32 +3747,32 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
       <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s">
-        <v>169</v>
-      </c>
-      <c r="E91" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
       <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>171</v>
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>532</v>
+      </c>
+      <c r="E92" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3534,32 +3783,32 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
       <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
-        <v>175</v>
-      </c>
-      <c r="E95" t="s">
-        <v>176</v>
+      <c r="C95" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3570,24 +3819,18 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>534</v>
       </c>
       <c r="E96" t="s">
-        <v>178</v>
+        <v>535</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
       <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>179</v>
-      </c>
-      <c r="E97" t="s">
-        <v>180</v>
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3598,10 +3841,10 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>536</v>
       </c>
       <c r="E98" t="s">
-        <v>182</v>
+        <v>537</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3612,10 +3855,10 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="E99" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3626,10 +3869,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3637,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3648,10 +3891,10 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>188</v>
+        <v>538</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>539</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -3662,18 +3905,24 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
       <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>192</v>
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -3684,10 +3933,10 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -3698,10 +3947,10 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="E106" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -3709,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -3720,10 +3969,10 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>198</v>
+        <v>540</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -3734,24 +3983,18 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>6</v>
-      </c>
       <c r="B110">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>202</v>
-      </c>
-      <c r="E110" t="s">
-        <v>203</v>
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -3762,10 +4005,10 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>542</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -3776,10 +4019,10 @@
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -3790,18 +4033,24 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
       <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>210</v>
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>179</v>
+      </c>
+      <c r="E114" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3812,10 +4061,10 @@
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E115" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,10 +4075,10 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E116" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3840,24 +4089,18 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E117" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>6</v>
-      </c>
       <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="D118" t="s">
-        <v>217</v>
-      </c>
-      <c r="E118" t="s">
-        <v>218</v>
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3868,10 +4111,10 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>219</v>
+        <v>544</v>
       </c>
       <c r="E119" t="s">
-        <v>220</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3882,10 +4125,10 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="E120" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3896,32 +4139,32 @@
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="E121" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>6</v>
-      </c>
       <c r="B122">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s">
-        <v>225</v>
-      </c>
-      <c r="E122" t="s">
-        <v>226</v>
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
       <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123" t="s">
-        <v>227</v>
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>546</v>
+      </c>
+      <c r="E123" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3932,10 +4175,10 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="E124" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3946,24 +4189,18 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E125" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>6</v>
-      </c>
       <c r="B126">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s">
-        <v>232</v>
-      </c>
-      <c r="E126" t="s">
-        <v>233</v>
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3974,10 +4211,10 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>234</v>
+        <v>548</v>
       </c>
       <c r="E127" t="s">
-        <v>235</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3988,10 +4225,10 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E128" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4002,10 +4239,10 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4016,10 +4253,10 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="E130" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4030,10 +4267,10 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4044,10 +4281,10 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4058,10 +4295,10 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4069,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4080,10 +4317,10 @@
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>249</v>
+        <v>550</v>
       </c>
       <c r="E135" t="s">
-        <v>250</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4094,10 +4331,10 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E136" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4108,10 +4345,10 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="E137" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4122,10 +4359,10 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="E138" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4136,10 +4373,10 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="E139" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4150,10 +4387,10 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="E140" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4164,10 +4401,10 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="E141" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4178,10 +4415,10 @@
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="E142" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4192,24 +4429,18 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="E143" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
       <c r="B144">
-        <v>2</v>
-      </c>
-      <c r="D144" t="s">
-        <v>267</v>
-      </c>
-      <c r="E144" t="s">
-        <v>268</v>
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4220,18 +4451,24 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>269</v>
+        <v>552</v>
       </c>
       <c r="E145" t="s">
-        <v>270</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>271</v>
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>228</v>
+      </c>
+      <c r="E146" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4242,10 +4479,10 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4256,10 +4493,10 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4270,10 +4507,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4284,10 +4521,10 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4298,10 +4535,10 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4312,10 +4549,10 @@
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4326,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4340,10 +4577,10 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4354,24 +4591,18 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="E155" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>6</v>
-      </c>
       <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="D156" t="s">
-        <v>290</v>
-      </c>
-      <c r="E156" t="s">
-        <v>291</v>
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4382,10 +4613,10 @@
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>292</v>
+        <v>554</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4396,10 +4627,10 @@
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="E158" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4410,18 +4641,24 @@
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="E159" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
       <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>298</v>
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>253</v>
+      </c>
+      <c r="E160" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4432,10 +4669,10 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="E161" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -4446,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="E162" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -4460,18 +4697,24 @@
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="E163" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
       <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>305</v>
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>261</v>
+      </c>
+      <c r="E164" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -4482,10 +4725,10 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4496,10 +4739,10 @@
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="E166" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -4510,10 +4753,10 @@
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="E167" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -4524,24 +4767,18 @@
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="E168" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>6</v>
-      </c>
       <c r="B169">
-        <v>2</v>
-      </c>
-      <c r="D169" t="s">
-        <v>314</v>
-      </c>
-      <c r="E169" t="s">
-        <v>315</v>
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -4552,10 +4789,10 @@
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>316</v>
+        <v>556</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>557</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -4566,18 +4803,24 @@
         <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
       <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
-        <v>320</v>
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>274</v>
+      </c>
+      <c r="E172" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -4588,10 +4831,10 @@
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -4602,10 +4845,10 @@
         <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="E174" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -4616,10 +4859,10 @@
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="E175" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -4630,10 +4873,10 @@
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="E176" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -4644,18 +4887,24 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="E177" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
       <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>331</v>
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>286</v>
+      </c>
+      <c r="E178" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -4666,18 +4915,24 @@
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E179" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
       <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
-        <v>334</v>
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>290</v>
+      </c>
+      <c r="E180" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -4688,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="E181" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -4702,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="E182" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -4716,24 +4971,18 @@
         <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="E183" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>6</v>
-      </c>
       <c r="B184">
-        <v>2</v>
-      </c>
-      <c r="D184" t="s">
-        <v>341</v>
-      </c>
-      <c r="E184" t="s">
-        <v>342</v>
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -4744,10 +4993,10 @@
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>343</v>
+        <v>558</v>
       </c>
       <c r="E185" t="s">
-        <v>344</v>
+        <v>559</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -4758,18 +5007,24 @@
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="E186" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
       <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>347</v>
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>301</v>
+      </c>
+      <c r="E187" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -4780,24 +5035,18 @@
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="E188" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>6</v>
-      </c>
       <c r="B189">
-        <v>2</v>
-      </c>
-      <c r="D189" t="s">
-        <v>350</v>
-      </c>
-      <c r="E189" t="s">
-        <v>351</v>
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -4808,10 +5057,10 @@
         <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>352</v>
+        <v>560</v>
       </c>
       <c r="E190" t="s">
-        <v>353</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -4822,10 +5071,10 @@
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -4836,10 +5085,10 @@
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -4850,10 +5099,10 @@
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -4864,10 +5113,10 @@
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -4878,10 +5127,10 @@
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -4892,10 +5141,10 @@
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -4906,24 +5155,18 @@
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>6</v>
-      </c>
       <c r="B198">
-        <v>2</v>
-      </c>
-      <c r="D198" t="s">
-        <v>368</v>
-      </c>
-      <c r="E198" t="s">
-        <v>369</v>
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -4934,10 +5177,10 @@
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>370</v>
+        <v>562</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>563</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -4948,10 +5191,10 @@
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -4962,10 +5205,10 @@
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -4976,18 +5219,24 @@
         <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
       <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>378</v>
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>327</v>
+      </c>
+      <c r="E203" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -4998,24 +5247,18 @@
         <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="E204" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>6</v>
-      </c>
       <c r="B205">
-        <v>2</v>
-      </c>
-      <c r="D205" t="s">
-        <v>381</v>
-      </c>
-      <c r="E205" t="s">
-        <v>382</v>
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5026,10 +5269,10 @@
         <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>383</v>
+        <v>564</v>
       </c>
       <c r="E206" t="s">
-        <v>384</v>
+        <v>565</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5040,24 +5283,18 @@
         <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="E207" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
       <c r="B208">
-        <v>2</v>
-      </c>
-      <c r="D208" t="s">
-        <v>387</v>
-      </c>
-      <c r="E208" t="s">
-        <v>357</v>
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -5068,10 +5305,10 @@
         <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>388</v>
+        <v>566</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5082,10 +5319,10 @@
         <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -5096,10 +5333,10 @@
         <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -5110,10 +5347,10 @@
         <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -5124,10 +5361,10 @@
         <v>2</v>
       </c>
       <c r="D213" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -5138,10 +5375,10 @@
         <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -5152,24 +5389,18 @@
         <v>2</v>
       </c>
       <c r="D215" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
       <c r="B216">
-        <v>2</v>
-      </c>
-      <c r="D216" t="s">
-        <v>402</v>
-      </c>
-      <c r="E216" t="s">
-        <v>403</v>
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -5180,10 +5411,10 @@
         <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>404</v>
+        <v>568</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -5194,10 +5425,10 @@
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -5208,18 +5439,24 @@
         <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
       <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>410</v>
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>352</v>
+      </c>
+      <c r="E220" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -5230,10 +5467,10 @@
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="E221" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -5244,18 +5481,24 @@
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="E222" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
       <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223" t="s">
-        <v>415</v>
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>358</v>
+      </c>
+      <c r="E223" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -5266,10 +5509,10 @@
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="E224" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -5280,18 +5523,24 @@
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
       <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
-        <v>420</v>
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>364</v>
+      </c>
+      <c r="E226" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -5302,10 +5551,10 @@
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="E227" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -5316,10 +5565,10 @@
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="E228" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -5330,10 +5579,10 @@
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="E229" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -5344,10 +5593,10 @@
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="E230" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -5358,10 +5607,10 @@
         <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="E231" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -5372,24 +5621,18 @@
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="E232" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>6</v>
-      </c>
       <c r="B233">
-        <v>2</v>
-      </c>
-      <c r="D233" t="s">
-        <v>433</v>
-      </c>
-      <c r="E233" t="s">
-        <v>434</v>
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -5400,10 +5643,10 @@
         <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>435</v>
+        <v>570</v>
       </c>
       <c r="E234" t="s">
-        <v>436</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -5414,10 +5657,10 @@
         <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="E235" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -5428,10 +5671,10 @@
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="E236" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -5442,18 +5685,24 @@
         <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="E237" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
       <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238" t="s">
-        <v>443</v>
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>385</v>
+      </c>
+      <c r="E238" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -5464,10 +5713,10 @@
         <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -5478,18 +5727,24 @@
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
       <c r="B241">
-        <v>1</v>
-      </c>
-      <c r="C241" t="s">
-        <v>448</v>
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>390</v>
+      </c>
+      <c r="E241" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -5500,10 +5755,10 @@
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="E242" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -5514,10 +5769,10 @@
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="E243" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -5528,10 +5783,10 @@
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="E244" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -5542,10 +5797,10 @@
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="E245" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -5556,10 +5811,10 @@
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="E246" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -5570,10 +5825,10 @@
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="E247" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -5584,10 +5839,10 @@
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E248" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -5598,10 +5853,10 @@
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="E249" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -5612,23 +5867,497 @@
         <v>2</v>
       </c>
       <c r="D250" t="s">
+        <v>408</v>
+      </c>
+      <c r="E250" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>572</v>
+      </c>
+      <c r="E252" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>411</v>
+      </c>
+      <c r="E253" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>413</v>
+      </c>
+      <c r="E254" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>574</v>
+      </c>
+      <c r="E256" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>416</v>
+      </c>
+      <c r="E257" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>418</v>
+      </c>
+      <c r="E258" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>576</v>
+      </c>
+      <c r="E260" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>6</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>421</v>
+      </c>
+      <c r="E261" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>6</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>423</v>
+      </c>
+      <c r="E262" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>425</v>
+      </c>
+      <c r="E263" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>427</v>
+      </c>
+      <c r="E264" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>429</v>
+      </c>
+      <c r="E265" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>431</v>
+      </c>
+      <c r="E266" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>433</v>
+      </c>
+      <c r="E267" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>435</v>
+      </c>
+      <c r="E268" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>437</v>
+      </c>
+      <c r="E269" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>439</v>
+      </c>
+      <c r="E270" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>441</v>
+      </c>
+      <c r="E271" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>578</v>
+      </c>
+      <c r="E273" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>444</v>
+      </c>
+      <c r="E274" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>446</v>
+      </c>
+      <c r="E275" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>580</v>
+      </c>
+      <c r="E277" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>449</v>
+      </c>
+      <c r="E278" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>451</v>
+      </c>
+      <c r="E279" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>453</v>
+      </c>
+      <c r="E280" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>455</v>
+      </c>
+      <c r="E281" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>457</v>
+      </c>
+      <c r="E282" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>459</v>
+      </c>
+      <c r="E283" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>461</v>
+      </c>
+      <c r="E284" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>463</v>
+      </c>
+      <c r="E285" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>6</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
         <v>465</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E286" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>6</v>
-      </c>
-      <c r="B251">
-        <v>2</v>
-      </c>
-      <c r="D251" t="s">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
         <v>467</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E287" t="s">
         <v>468</v>
       </c>
     </row>

--- a/tools/sama/sama-csf-1.0.xlsx
+++ b/tools/sama/sama-csf-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/sama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A3DCD9-9286-8C48-909C-767D16BCB339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171CD68E-ABCB-6245-B7D1-F4478CBD615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29460" yWindow="-28300" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="-28300" windowWidth="50880" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="585">
   <si>
     <t>assessable</t>
   </si>
@@ -1633,9 +1633,6 @@
     <t>library_ref_id</t>
   </si>
   <si>
-    <t>SAMA-CRFR-1.0</t>
-  </si>
-  <si>
     <t>library_name</t>
   </si>
   <si>
@@ -1969,6 +1966,18 @@
   </si>
   <si>
     <t>The Cyber Security controls within the cloud computing policy for hybrid and public cloud services should be defined, approved and implemented, and communicated within Member Organization.</t>
+  </si>
+  <si>
+    <t>Cyber Security Leadership and Governance</t>
+  </si>
+  <si>
+    <t>Cyber Security Risk Management &amp; Compliance</t>
+  </si>
+  <si>
+    <t>Operation &amp; Technology</t>
+  </si>
+  <si>
+    <t>Third Party Security</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2397,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="231" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2403,7 +2412,7 @@
         <v>469</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2427,84 +2436,84 @@
         <v>473</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -2512,7 +2521,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
@@ -2520,24 +2529,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" t="s">
         <v>490</v>
-      </c>
-      <c r="C16" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -2548,13 +2557,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E6FBC4-F2B5-6349-95DF-5014ECFBF984}">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="239" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="239" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2578,21 +2593,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E3" t="s">
-        <v>511</v>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2600,13 +2609,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>509</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,13 +2623,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2628,13 +2637,13 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2642,13 +2651,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2656,13 +2665,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2670,13 +2679,13 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2684,13 +2693,13 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2698,13 +2707,13 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2712,35 +2721,35 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>512</v>
-      </c>
-      <c r="E14" t="s">
-        <v>513</v>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,13 +2757,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>511</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2762,13 +2771,13 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2776,35 +2785,35 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>514</v>
-      </c>
-      <c r="E19" t="s">
-        <v>515</v>
+      <c r="C19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2812,13 +2821,13 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>513</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2826,13 +2835,13 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2840,13 +2849,13 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2854,35 +2863,35 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>39</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
-        <v>516</v>
-      </c>
-      <c r="E25" t="s">
-        <v>517</v>
+      <c r="C25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2890,13 +2899,13 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2904,13 +2913,13 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2918,13 +2927,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2932,13 +2941,13 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2946,13 +2955,13 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2960,13 +2969,13 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2974,13 +2983,13 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2988,13 +2997,13 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3002,13 +3011,13 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3016,13 +3025,13 @@
         <v>6</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3030,13 +3039,13 @@
         <v>6</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3044,13 +3053,13 @@
         <v>6</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3058,13 +3067,13 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3072,13 +3081,13 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3086,13 +3095,13 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3100,13 +3109,13 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3114,35 +3123,35 @@
         <v>6</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
         <v>74</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
       <c r="B44">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>518</v>
-      </c>
-      <c r="E44" t="s">
-        <v>519</v>
+      <c r="C44" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3150,35 +3159,35 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
+        <v>517</v>
+      </c>
+      <c r="E45" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
         <v>77</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
       <c r="B47">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
-        <v>520</v>
-      </c>
-      <c r="E47" t="s">
-        <v>521</v>
+      <c r="C47" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3186,13 +3195,13 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3200,13 +3209,13 @@
         <v>6</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3214,13 +3223,13 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3228,13 +3237,13 @@
         <v>6</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3242,13 +3251,13 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3256,35 +3265,35 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
         <v>90</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
       <c r="B55">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
-        <v>522</v>
-      </c>
-      <c r="E55" t="s">
-        <v>523</v>
+      <c r="C55" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3292,49 +3301,43 @@
         <v>6</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
+        <v>521</v>
+      </c>
+      <c r="E56" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
         <v>93</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>524</v>
-      </c>
-      <c r="E58" t="s">
-        <v>525</v>
+      <c r="C58" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" t="s">
-        <v>97</v>
+      <c r="C59" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3342,13 +3345,13 @@
         <v>6</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>523</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3356,13 +3359,13 @@
         <v>6</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3370,13 +3373,13 @@
         <v>6</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3384,13 +3387,13 @@
         <v>6</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3398,13 +3401,13 @@
         <v>6</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3412,13 +3415,13 @@
         <v>6</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3426,13 +3429,13 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3440,13 +3443,13 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3454,13 +3457,13 @@
         <v>6</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3468,13 +3471,13 @@
         <v>6</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3482,13 +3485,13 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3496,13 +3499,13 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E71" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3510,13 +3513,13 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3524,13 +3527,13 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3538,21 +3541,27 @@
         <v>6</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>128</v>
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3560,27 +3569,21 @@
         <v>6</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>526</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>527</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="D77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" t="s">
-        <v>130</v>
+      <c r="C77" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3588,21 +3591,27 @@
         <v>6</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>525</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
       <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3610,35 +3619,35 @@
         <v>6</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>528</v>
+        <v>131</v>
       </c>
       <c r="E80" t="s">
-        <v>529</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
       <c r="B81">
         <v>2</v>
       </c>
-      <c r="D81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" t="s">
-        <v>135</v>
+      <c r="C81" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>136</v>
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>527</v>
+      </c>
+      <c r="E82" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3646,27 +3655,21 @@
         <v>6</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>530</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>531</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
       <c r="B84">
         <v>2</v>
       </c>
-      <c r="D84" t="s">
-        <v>137</v>
-      </c>
-      <c r="E84" t="s">
-        <v>138</v>
+      <c r="C84" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3674,13 +3677,13 @@
         <v>6</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>529</v>
       </c>
       <c r="E85" t="s">
-        <v>140</v>
+        <v>530</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3688,13 +3691,13 @@
         <v>6</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3702,13 +3705,13 @@
         <v>6</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3716,13 +3719,13 @@
         <v>6</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E88" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3730,13 +3733,13 @@
         <v>6</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3744,21 +3747,27 @@
         <v>6</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
       <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3766,27 +3775,21 @@
         <v>6</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>532</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>533</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
       <c r="B93">
         <v>2</v>
       </c>
-      <c r="D93" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" t="s">
-        <v>153</v>
+      <c r="C93" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3794,21 +3797,27 @@
         <v>6</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>531</v>
       </c>
       <c r="E94" t="s">
-        <v>155</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>156</v>
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3816,21 +3825,21 @@
         <v>6</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>534</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>535</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3838,27 +3847,21 @@
         <v>6</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E98" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="D99" t="s">
-        <v>158</v>
-      </c>
-      <c r="E99" t="s">
-        <v>159</v>
+      <c r="C99" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3866,21 +3869,27 @@
         <v>6</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>535</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
       <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>162</v>
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3888,27 +3897,21 @@
         <v>6</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>538</v>
+        <v>160</v>
       </c>
       <c r="E102" t="s">
-        <v>539</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
       <c r="B103">
         <v>2</v>
       </c>
-      <c r="D103" t="s">
-        <v>163</v>
-      </c>
-      <c r="E103" t="s">
-        <v>164</v>
+      <c r="C103" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3916,13 +3919,13 @@
         <v>6</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>165</v>
+        <v>537</v>
       </c>
       <c r="E104" t="s">
-        <v>166</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -3930,13 +3933,13 @@
         <v>6</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E105" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -3944,21 +3947,27 @@
         <v>6</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E106" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
       <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>171</v>
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>167</v>
+      </c>
+      <c r="E107" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -3966,35 +3975,35 @@
         <v>6</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>540</v>
+        <v>169</v>
       </c>
       <c r="E108" t="s">
-        <v>541</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>6</v>
-      </c>
       <c r="B109">
         <v>2</v>
       </c>
-      <c r="D109" t="s">
-        <v>172</v>
-      </c>
-      <c r="E109" t="s">
-        <v>173</v>
+      <c r="C109" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
       <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
-        <v>174</v>
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>539</v>
+      </c>
+      <c r="E110" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4002,41 +4011,29 @@
         <v>6</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>542</v>
+        <v>172</v>
       </c>
       <c r="E111" t="s">
-        <v>543</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>6</v>
-      </c>
       <c r="B112">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s">
-        <v>175</v>
-      </c>
-      <c r="E112" t="s">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>6</v>
-      </c>
       <c r="B113">
         <v>2</v>
       </c>
-      <c r="D113" t="s">
-        <v>177</v>
-      </c>
-      <c r="E113" t="s">
-        <v>178</v>
+      <c r="C113" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4044,13 +4041,13 @@
         <v>6</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>179</v>
+        <v>541</v>
       </c>
       <c r="E114" t="s">
-        <v>180</v>
+        <v>542</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4058,13 +4055,13 @@
         <v>6</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E115" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4072,13 +4069,13 @@
         <v>6</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E116" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4086,21 +4083,27 @@
         <v>6</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E117" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
       <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" t="s">
-        <v>187</v>
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>181</v>
+      </c>
+      <c r="E118" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4108,13 +4111,13 @@
         <v>6</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>544</v>
+        <v>183</v>
       </c>
       <c r="E119" t="s">
-        <v>545</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4122,35 +4125,35 @@
         <v>6</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E120" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
       <c r="B121">
         <v>2</v>
       </c>
-      <c r="D121" t="s">
-        <v>190</v>
-      </c>
-      <c r="E121" t="s">
-        <v>191</v>
+      <c r="C121" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
       <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122" t="s">
-        <v>192</v>
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>543</v>
+      </c>
+      <c r="E122" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4158,13 +4161,13 @@
         <v>6</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>546</v>
+        <v>188</v>
       </c>
       <c r="E123" t="s">
-        <v>547</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4172,35 +4175,35 @@
         <v>6</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E124" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>6</v>
-      </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="D125" t="s">
-        <v>195</v>
-      </c>
-      <c r="E125" t="s">
-        <v>196</v>
+      <c r="C125" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
       <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>197</v>
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>545</v>
+      </c>
+      <c r="E126" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4208,13 +4211,13 @@
         <v>6</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>548</v>
+        <v>193</v>
       </c>
       <c r="E127" t="s">
-        <v>549</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4222,27 +4225,21 @@
         <v>6</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E128" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>6</v>
-      </c>
       <c r="B129">
         <v>2</v>
       </c>
-      <c r="D129" t="s">
-        <v>200</v>
-      </c>
-      <c r="E129" t="s">
-        <v>201</v>
+      <c r="C129" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4250,13 +4247,13 @@
         <v>6</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>202</v>
+        <v>547</v>
       </c>
       <c r="E130" t="s">
-        <v>203</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4264,13 +4261,13 @@
         <v>6</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E131" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4278,13 +4275,13 @@
         <v>6</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E132" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4292,21 +4289,27 @@
         <v>6</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E133" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>210</v>
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4314,13 +4317,13 @@
         <v>6</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>550</v>
+        <v>206</v>
       </c>
       <c r="E135" t="s">
-        <v>551</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4328,27 +4331,21 @@
         <v>6</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E136" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>6</v>
-      </c>
       <c r="B137">
         <v>2</v>
       </c>
-      <c r="D137" t="s">
-        <v>213</v>
-      </c>
-      <c r="E137" t="s">
-        <v>214</v>
+      <c r="C137" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4356,13 +4353,13 @@
         <v>6</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>215</v>
+        <v>549</v>
       </c>
       <c r="E138" t="s">
-        <v>216</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4370,13 +4367,13 @@
         <v>6</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E139" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4384,13 +4381,13 @@
         <v>6</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E140" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4398,13 +4395,13 @@
         <v>6</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E141" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4412,13 +4409,13 @@
         <v>6</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E142" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4426,21 +4423,27 @@
         <v>6</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E143" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>227</v>
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>221</v>
+      </c>
+      <c r="E144" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4448,13 +4451,13 @@
         <v>6</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>552</v>
+        <v>223</v>
       </c>
       <c r="E145" t="s">
-        <v>553</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4462,27 +4465,21 @@
         <v>6</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E146" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>6</v>
-      </c>
       <c r="B147">
         <v>2</v>
       </c>
-      <c r="D147" t="s">
-        <v>230</v>
-      </c>
-      <c r="E147" t="s">
-        <v>231</v>
+      <c r="C147" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4490,13 +4487,13 @@
         <v>6</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>232</v>
+        <v>551</v>
       </c>
       <c r="E148" t="s">
-        <v>233</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4504,13 +4501,13 @@
         <v>6</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E149" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4518,13 +4515,13 @@
         <v>6</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E150" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4532,13 +4529,13 @@
         <v>6</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E151" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4546,13 +4543,13 @@
         <v>6</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E152" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4560,13 +4557,13 @@
         <v>6</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E153" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4574,13 +4571,13 @@
         <v>6</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E154" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4588,21 +4585,27 @@
         <v>6</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E155" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
       <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>248</v>
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>242</v>
+      </c>
+      <c r="E156" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4610,13 +4613,13 @@
         <v>6</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>554</v>
+        <v>244</v>
       </c>
       <c r="E157" t="s">
-        <v>555</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4624,27 +4627,21 @@
         <v>6</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E158" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>6</v>
-      </c>
       <c r="B159">
         <v>2</v>
       </c>
-      <c r="D159" t="s">
-        <v>251</v>
-      </c>
-      <c r="E159" t="s">
-        <v>252</v>
+      <c r="C159" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4652,13 +4649,13 @@
         <v>6</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>253</v>
+        <v>553</v>
       </c>
       <c r="E160" t="s">
-        <v>254</v>
+        <v>554</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4666,13 +4663,13 @@
         <v>6</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E161" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -4680,13 +4677,13 @@
         <v>6</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E162" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -4694,13 +4691,13 @@
         <v>6</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E163" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -4708,13 +4705,13 @@
         <v>6</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E164" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -4722,13 +4719,13 @@
         <v>6</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E165" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4736,13 +4733,13 @@
         <v>6</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E166" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -4750,13 +4747,13 @@
         <v>6</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E167" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -4764,21 +4761,27 @@
         <v>6</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E168" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
       <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>271</v>
+        <v>3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>265</v>
+      </c>
+      <c r="E169" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -4786,13 +4789,13 @@
         <v>6</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>556</v>
+        <v>267</v>
       </c>
       <c r="E170" t="s">
-        <v>557</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -4800,27 +4803,21 @@
         <v>6</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E171" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>6</v>
-      </c>
       <c r="B172">
         <v>2</v>
       </c>
-      <c r="D172" t="s">
-        <v>274</v>
-      </c>
-      <c r="E172" t="s">
-        <v>275</v>
+      <c r="C172" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -4828,13 +4825,13 @@
         <v>6</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>276</v>
+        <v>555</v>
       </c>
       <c r="E173" t="s">
-        <v>277</v>
+        <v>556</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -4842,13 +4839,13 @@
         <v>6</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E174" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -4856,13 +4853,13 @@
         <v>6</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E175" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -4870,13 +4867,13 @@
         <v>6</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D176" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E176" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -4884,13 +4881,13 @@
         <v>6</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E177" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -4898,13 +4895,13 @@
         <v>6</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E178" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -4912,13 +4909,13 @@
         <v>6</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E179" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -4926,13 +4923,13 @@
         <v>6</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E180" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -4940,13 +4937,13 @@
         <v>6</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E181" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -4954,13 +4951,13 @@
         <v>6</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E182" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -4968,21 +4965,27 @@
         <v>6</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E183" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
       <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>298</v>
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>292</v>
+      </c>
+      <c r="E184" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -4990,13 +4993,13 @@
         <v>6</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>558</v>
+        <v>294</v>
       </c>
       <c r="E185" t="s">
-        <v>559</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -5004,27 +5007,21 @@
         <v>6</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E186" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>6</v>
-      </c>
       <c r="B187">
         <v>2</v>
       </c>
-      <c r="D187" t="s">
-        <v>301</v>
-      </c>
-      <c r="E187" t="s">
-        <v>302</v>
+      <c r="C187" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -5032,21 +5029,27 @@
         <v>6</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>557</v>
       </c>
       <c r="E188" t="s">
-        <v>304</v>
+        <v>558</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
       <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
-        <v>305</v>
+        <v>3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>299</v>
+      </c>
+      <c r="E189" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -5054,13 +5057,13 @@
         <v>6</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D190" t="s">
-        <v>560</v>
+        <v>301</v>
       </c>
       <c r="E190" t="s">
-        <v>561</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -5068,27 +5071,21 @@
         <v>6</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E191" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>6</v>
-      </c>
       <c r="B192">
         <v>2</v>
       </c>
-      <c r="D192" t="s">
-        <v>308</v>
-      </c>
-      <c r="E192" t="s">
-        <v>309</v>
+      <c r="C192" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -5096,13 +5093,13 @@
         <v>6</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>310</v>
+        <v>559</v>
       </c>
       <c r="E193" t="s">
-        <v>311</v>
+        <v>560</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -5110,13 +5107,13 @@
         <v>6</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E194" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5124,13 +5121,13 @@
         <v>6</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E195" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5138,13 +5135,13 @@
         <v>6</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E196" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -5152,21 +5149,27 @@
         <v>6</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E197" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
       <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>320</v>
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>314</v>
+      </c>
+      <c r="E198" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -5174,13 +5177,13 @@
         <v>6</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D199" t="s">
-        <v>562</v>
+        <v>316</v>
       </c>
       <c r="E199" t="s">
-        <v>563</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5188,27 +5191,21 @@
         <v>6</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E200" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>6</v>
-      </c>
       <c r="B201">
         <v>2</v>
       </c>
-      <c r="D201" t="s">
-        <v>323</v>
-      </c>
-      <c r="E201" t="s">
-        <v>324</v>
+      <c r="C201" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5216,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D202" t="s">
-        <v>325</v>
+        <v>561</v>
       </c>
       <c r="E202" t="s">
-        <v>326</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -5230,13 +5227,13 @@
         <v>6</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E203" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -5244,21 +5241,27 @@
         <v>6</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E204" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
       <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
-        <v>331</v>
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>325</v>
+      </c>
+      <c r="E205" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5266,13 +5269,13 @@
         <v>6</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>564</v>
+        <v>327</v>
       </c>
       <c r="E206" t="s">
-        <v>565</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5280,21 +5283,21 @@
         <v>6</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E207" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -5302,13 +5305,13 @@
         <v>6</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E209" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5316,27 +5319,21 @@
         <v>6</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E210" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
       <c r="B211">
         <v>2</v>
       </c>
-      <c r="D211" t="s">
-        <v>337</v>
-      </c>
-      <c r="E211" t="s">
-        <v>338</v>
+      <c r="C211" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -5344,13 +5341,13 @@
         <v>6</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>339</v>
+        <v>565</v>
       </c>
       <c r="E212" t="s">
-        <v>340</v>
+        <v>566</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -5358,13 +5355,13 @@
         <v>6</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E213" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -5372,13 +5369,13 @@
         <v>6</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E214" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -5386,21 +5383,27 @@
         <v>6</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E215" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
       <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>347</v>
+        <v>3</v>
+      </c>
+      <c r="D216" t="s">
+        <v>341</v>
+      </c>
+      <c r="E216" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -5408,13 +5411,13 @@
         <v>6</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>568</v>
+        <v>343</v>
       </c>
       <c r="E217" t="s">
-        <v>569</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -5422,27 +5425,21 @@
         <v>6</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E218" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
       <c r="B219">
         <v>2</v>
       </c>
-      <c r="D219" t="s">
-        <v>350</v>
-      </c>
-      <c r="E219" t="s">
-        <v>351</v>
+      <c r="C219" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -5450,13 +5447,13 @@
         <v>6</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="E220" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -5464,13 +5461,13 @@
         <v>6</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E221" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -5478,13 +5475,13 @@
         <v>6</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E222" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -5492,13 +5489,13 @@
         <v>6</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D223" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E223" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -5506,13 +5503,13 @@
         <v>6</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E224" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -5520,13 +5517,13 @@
         <v>6</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E225" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -5534,13 +5531,13 @@
         <v>6</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E226" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -5548,13 +5545,13 @@
         <v>6</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E227" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -5562,13 +5559,13 @@
         <v>6</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E228" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -5576,13 +5573,13 @@
         <v>6</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E229" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -5590,13 +5587,13 @@
         <v>6</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D230" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E230" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -5604,13 +5601,13 @@
         <v>6</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D231" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E231" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -5618,21 +5615,27 @@
         <v>6</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E232" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
       <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233" t="s">
-        <v>378</v>
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>372</v>
+      </c>
+      <c r="E233" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -5640,13 +5643,13 @@
         <v>6</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D234" t="s">
-        <v>570</v>
+        <v>374</v>
       </c>
       <c r="E234" t="s">
-        <v>571</v>
+        <v>375</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -5654,27 +5657,21 @@
         <v>6</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E235" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>6</v>
-      </c>
       <c r="B236">
         <v>2</v>
       </c>
-      <c r="D236" t="s">
-        <v>381</v>
-      </c>
-      <c r="E236" t="s">
-        <v>382</v>
+      <c r="C236" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -5682,13 +5679,13 @@
         <v>6</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D237" t="s">
-        <v>383</v>
+        <v>569</v>
       </c>
       <c r="E237" t="s">
-        <v>384</v>
+        <v>570</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -5696,13 +5693,13 @@
         <v>6</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E238" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -5710,13 +5707,13 @@
         <v>6</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D239" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E239" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -5724,13 +5721,13 @@
         <v>6</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D240" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E240" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -5738,13 +5735,13 @@
         <v>6</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D241" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E241" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -5752,13 +5749,13 @@
         <v>6</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D242" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E242" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -5766,13 +5763,13 @@
         <v>6</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E243" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -5780,13 +5777,13 @@
         <v>6</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E244" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -5794,13 +5791,13 @@
         <v>6</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E245" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -5808,13 +5805,13 @@
         <v>6</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E246" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -5822,13 +5819,13 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E247" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -5836,13 +5833,13 @@
         <v>6</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D248" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E248" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -5850,13 +5847,13 @@
         <v>6</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D249" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E249" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -5864,21 +5861,27 @@
         <v>6</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E250" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>6</v>
+      </c>
       <c r="B251">
-        <v>1</v>
-      </c>
-      <c r="C251" t="s">
-        <v>410</v>
+        <v>3</v>
+      </c>
+      <c r="D251" t="s">
+        <v>404</v>
+      </c>
+      <c r="E251" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -5886,13 +5889,13 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>572</v>
+        <v>406</v>
       </c>
       <c r="E252" t="s">
-        <v>573</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -5900,35 +5903,35 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E253" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>6</v>
-      </c>
       <c r="B254">
         <v>2</v>
       </c>
-      <c r="D254" t="s">
-        <v>413</v>
-      </c>
-      <c r="E254" t="s">
-        <v>414</v>
+      <c r="C254" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
       <c r="B255">
-        <v>1</v>
-      </c>
-      <c r="C255" t="s">
-        <v>415</v>
+        <v>3</v>
+      </c>
+      <c r="D255" t="s">
+        <v>571</v>
+      </c>
+      <c r="E255" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -5936,13 +5939,13 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>574</v>
+        <v>411</v>
       </c>
       <c r="E256" t="s">
-        <v>575</v>
+        <v>412</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -5950,35 +5953,35 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E257" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>6</v>
-      </c>
       <c r="B258">
         <v>2</v>
       </c>
-      <c r="D258" t="s">
-        <v>418</v>
-      </c>
-      <c r="E258" t="s">
-        <v>419</v>
+      <c r="C258" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>6</v>
+      </c>
       <c r="B259">
-        <v>1</v>
-      </c>
-      <c r="C259" t="s">
-        <v>420</v>
+        <v>3</v>
+      </c>
+      <c r="D259" t="s">
+        <v>573</v>
+      </c>
+      <c r="E259" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -5986,13 +5989,13 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>576</v>
+        <v>416</v>
       </c>
       <c r="E260" t="s">
-        <v>577</v>
+        <v>417</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -6000,41 +6003,29 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D261" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E261" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>6</v>
-      </c>
       <c r="B262">
-        <v>2</v>
-      </c>
-      <c r="D262" t="s">
-        <v>423</v>
-      </c>
-      <c r="E262" t="s">
-        <v>424</v>
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>6</v>
-      </c>
       <c r="B263">
         <v>2</v>
       </c>
-      <c r="D263" t="s">
-        <v>425</v>
-      </c>
-      <c r="E263" t="s">
-        <v>426</v>
+      <c r="C263" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -6042,13 +6033,13 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D264" t="s">
-        <v>427</v>
+        <v>575</v>
       </c>
       <c r="E264" t="s">
-        <v>428</v>
+        <v>576</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -6056,13 +6047,13 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E265" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -6070,13 +6061,13 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D266" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E266" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -6084,13 +6075,13 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E267" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -6098,13 +6089,13 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E268" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -6112,13 +6103,13 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E269" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -6126,13 +6117,13 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E270" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -6140,21 +6131,27 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E271" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>6</v>
+      </c>
       <c r="B272">
-        <v>1</v>
-      </c>
-      <c r="C272" t="s">
-        <v>443</v>
+        <v>3</v>
+      </c>
+      <c r="D272" t="s">
+        <v>435</v>
+      </c>
+      <c r="E272" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -6162,13 +6159,13 @@
         <v>6</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D273" t="s">
-        <v>578</v>
+        <v>437</v>
       </c>
       <c r="E273" t="s">
-        <v>579</v>
+        <v>438</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -6176,13 +6173,13 @@
         <v>6</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D274" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E274" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -6190,21 +6187,21 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D275" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E275" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -6212,13 +6209,13 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D277" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E277" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -6226,13 +6223,13 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D278" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E278" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -6240,27 +6237,21 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D279" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E279" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>6</v>
-      </c>
       <c r="B280">
         <v>2</v>
       </c>
-      <c r="D280" t="s">
-        <v>453</v>
-      </c>
-      <c r="E280" t="s">
-        <v>454</v>
+      <c r="C280" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -6268,13 +6259,13 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>455</v>
+        <v>579</v>
       </c>
       <c r="E281" t="s">
-        <v>456</v>
+        <v>580</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -6282,13 +6273,13 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E282" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -6296,13 +6287,13 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E283" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -6310,13 +6301,13 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E284" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -6324,13 +6315,13 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E285" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -6338,13 +6329,13 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E286" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -6352,12 +6343,68 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D287" t="s">
+        <v>459</v>
+      </c>
+      <c r="E287" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="D288" t="s">
+        <v>461</v>
+      </c>
+      <c r="E288" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="D289" t="s">
+        <v>463</v>
+      </c>
+      <c r="E289" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="D290" t="s">
+        <v>465</v>
+      </c>
+      <c r="E290" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="D291" t="s">
         <v>467</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E291" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6382,7 +6429,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -6396,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -6407,10 +6454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -6418,10 +6465,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -6429,10 +6476,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -6440,10 +6487,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -6451,10 +6498,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
